--- a/Backlog del Sprint.xlsx
+++ b/Backlog del Sprint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26785fffd84b4161/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26785fffd84b4161/Documents/devops/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="622" documentId="8_{467E9920-8CC0-470B-94B9-BD8211EBA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF04FBC-0E1E-4607-9F13-9EF7B5F67E78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7365" yWindow="3390" windowWidth="11520" windowHeight="7875" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="25" r:id="rId1"/>
@@ -76,6 +76,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -262,13 +265,16 @@
     <t>Programar el sistema de autenticación de firebase.</t>
   </si>
   <si>
-    <t>Gustavo, Iram</t>
+    <t>Gabriel, Kevin</t>
   </si>
   <si>
     <t>5.4</t>
   </si>
   <si>
     <t>Programar la función de validación de contraseña.</t>
+  </si>
+  <si>
+    <t>Gustavo, Iram</t>
   </si>
   <si>
     <t>5..5</t>
@@ -322,7 +328,7 @@
     <t>Generar la base de datos para el ingreso de saldo.</t>
   </si>
   <si>
-    <t>Gabriel, Kevin</t>
+    <t>Planned</t>
   </si>
   <si>
     <t>3.4</t>
@@ -359,9 +365,6 @@
   </si>
   <si>
     <t>3.11</t>
-  </si>
-  <si>
-    <t>Planned</t>
   </si>
   <si>
     <t>Tarea 1</t>
@@ -3854,8 +3857,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4841,7 +4844,7 @@
       </c>
       <c r="D24" s="80"/>
       <c r="E24" s="49" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>27</v>
@@ -4897,7 +4900,7 @@
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>27</v>
@@ -4946,14 +4949,14 @@
     </row>
     <row r="26" spans="2:32" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="80"/>
       <c r="E26" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>27</v>
@@ -5002,14 +5005,14 @@
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" s="64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="80"/>
       <c r="E27" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>27</v>
@@ -5058,14 +5061,14 @@
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" s="64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>27</v>
@@ -5114,14 +5117,14 @@
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="80"/>
       <c r="E29" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>27</v>
@@ -5170,14 +5173,14 @@
     </row>
     <row r="30" spans="2:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="81"/>
       <c r="E30" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="44" t="s">
         <v>27</v>
@@ -5229,7 +5232,7 @@
         <v>3.1</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="76">
         <v>3</v>
@@ -5284,10 +5287,10 @@
     </row>
     <row r="32" spans="2:32" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B32" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" s="77"/>
       <c r="E32" s="49" t="s">
@@ -5340,17 +5343,17 @@
     </row>
     <row r="33" spans="2:32" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B33" s="64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="35" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G33" s="29">
         <v>3</v>
@@ -5396,14 +5399,14 @@
     </row>
     <row r="34" spans="2:32" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B34" s="64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" s="77"/>
       <c r="E34" s="35" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F34" s="35" t="str">
         <f>IF(C33&lt;&gt;"","Planned","")</f>
@@ -5453,14 +5456,14 @@
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" s="64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="77"/>
       <c r="E35" s="35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" s="35" t="str">
         <f t="shared" ref="F35:F41" si="5">IF(C35&lt;&gt;"","Planned","")</f>
@@ -5510,14 +5513,14 @@
     </row>
     <row r="36" spans="2:32" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B36" s="64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="77"/>
       <c r="E36" s="35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F36" s="35" t="str">
         <f t="shared" si="5"/>
@@ -5567,14 +5570,14 @@
     </row>
     <row r="37" spans="2:32" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B37" s="64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="77"/>
       <c r="E37" s="35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F37" s="35" t="str">
         <f t="shared" si="5"/>
@@ -5624,14 +5627,14 @@
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38" s="64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" s="77"/>
       <c r="E38" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" s="35" t="str">
         <f t="shared" si="5"/>
@@ -5681,14 +5684,14 @@
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B39" s="64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="77"/>
       <c r="E39" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="35" t="str">
         <f t="shared" si="5"/>
@@ -5738,14 +5741,14 @@
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" s="64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="77"/>
       <c r="E40" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" s="35" t="str">
         <f t="shared" si="5"/>
@@ -5795,14 +5798,14 @@
     </row>
     <row r="41" spans="2:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="78"/>
       <c r="E41" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="44" t="str">
         <f t="shared" si="5"/>
@@ -10612,66 +10615,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de664effb0a23aec775b6884083f1507">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8ef9ce5e2f992f4a0d6f8aeafc38bc7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -10816,7 +10759,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10825,32 +10768,67 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36031E8-9CA1-417E-B558-74DEFEC6B8F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C65E0F1F-D51E-4C07-A1AE-AA43A65D34E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10868,10 +10846,35 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36031E8-9CA1-417E-B558-74DEFEC6B8F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Backlog del Sprint.xlsx
+++ b/Backlog del Sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26785fffd84b4161/Documents/devops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="8_{467E9920-8CC0-470B-94B9-BD8211EBA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF04FBC-0E1E-4607-9F13-9EF7B5F67E78}"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="8_{467E9920-8CC0-470B-94B9-BD8211EBA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2063B386-33DC-4A9B-9065-B495480BD080}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7365" yWindow="3390" windowWidth="11520" windowHeight="7875" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="25" r:id="rId1"/>
@@ -459,7 +459,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +475,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,6 +1113,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,13 +1238,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
@@ -1251,6 +1262,13 @@
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1306,45 +1324,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1387,51 +1369,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1453,80 +1391,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1585,7 +1449,161 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1690,7 +1708,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -1917,58 +1935,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>6.75</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3571428571428577</c:v>
+                  <c:v>7.1785714285714279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9642857142857144</c:v>
+                  <c:v>6.6071428571428568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5714285714285712</c:v>
+                  <c:v>6.0357142857142847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1785714285714288</c:v>
+                  <c:v>5.4642857142857135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7857142857142856</c:v>
+                  <c:v>4.8928571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3928571428571423</c:v>
+                  <c:v>4.3214285714285703</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3.7499999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6071428571428572</c:v>
+                  <c:v>3.1785714285714279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2142857142857144</c:v>
+                  <c:v>2.6071428571428559</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8214285714285712</c:v>
+                  <c:v>2.0357142857142847</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4285714285714279</c:v>
+                  <c:v>1.4642857142857135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0357142857142856</c:v>
+                  <c:v>0.89285714285714146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6428571428571423</c:v>
+                  <c:v>0.3214285714285694</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85714285714285676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46428571428571352</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1428571428571175E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3857,8 +3875,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="131" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4188,7 +4206,7 @@
       </c>
       <c r="I17" s="34">
         <f t="shared" ref="I17:AF17" ca="1" si="0">IF(AND(SUM(OFFSET(I21,1,0,TaskRows,1))=0),"",SUM(OFFSET(I21,1,0,TaskRows,1)))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4414,75 +4432,75 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33">
         <f t="shared" ref="H19:AF19" ca="1" si="2">IF(TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20)&lt;0,"",TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20))</f>
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3571428571428577</v>
+        <v>7.1785714285714279</v>
       </c>
       <c r="J19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9642857142857144</v>
+        <v>6.6071428571428568</v>
       </c>
       <c r="K19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5714285714285712</v>
+        <v>6.0357142857142847</v>
       </c>
       <c r="L19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1785714285714288</v>
+        <v>5.4642857142857135</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7857142857142856</v>
+        <v>4.8928571428571423</v>
       </c>
       <c r="N19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3928571428571423</v>
+        <v>4.3214285714285703</v>
       </c>
       <c r="O19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3.7499999999999991</v>
       </c>
       <c r="P19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6071428571428572</v>
+        <v>3.1785714285714279</v>
       </c>
       <c r="Q19" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2142857142857144</v>
+        <v>2.6071428571428559</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8214285714285712</v>
+        <v>2.0357142857142847</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4285714285714279</v>
+        <v>1.4642857142857135</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0357142857142856</v>
+        <v>0.89285714285714146</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6428571428571423</v>
-      </c>
-      <c r="V19" s="1">
+        <v>0.3214285714285694</v>
+      </c>
+      <c r="V19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="W19" s="1">
+        <v/>
+      </c>
+      <c r="W19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85714285714285676</v>
-      </c>
-      <c r="X19" s="1">
+        <v/>
+      </c>
+      <c r="X19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46428571428571352</v>
-      </c>
-      <c r="Y19" s="1">
+        <v/>
+      </c>
+      <c r="Y19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1428571428571175E-2</v>
+        <v/>
       </c>
       <c r="Z19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4740,7 +4758,7 @@
       <c r="G22" s="28">
         <v>1</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="82">
         <v>2</v>
       </c>
       <c r="I22" s="39">
@@ -4796,7 +4814,7 @@
       <c r="G23" s="29">
         <v>3</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="83">
         <v>3</v>
       </c>
       <c r="I23" s="33">
@@ -4852,11 +4870,11 @@
       <c r="G24" s="29">
         <v>3</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="84">
         <v>3</v>
       </c>
-      <c r="I24" s="71">
-        <v>0</v>
+      <c r="I24" s="85">
+        <v>3</v>
       </c>
       <c r="J24" s="71">
         <v>0</v>
@@ -4911,7 +4929,7 @@
       <c r="H25" s="33">
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="84">
         <v>2</v>
       </c>
       <c r="J25" s="33">
@@ -4967,7 +4985,7 @@
       <c r="H26" s="33">
         <v>0</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="84">
         <v>4</v>
       </c>
       <c r="J26" s="33">
@@ -6462,11 +6480,11 @@
     <cfRule type="expression" dxfId="66" priority="71" stopIfTrue="1">
       <formula>$M5="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="72" stopIfTrue="1">
+      <formula>$M5="Eliminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
       <formula>$M5="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72" stopIfTrue="1">
-      <formula>$M5="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
@@ -6495,11 +6513,11 @@
     <cfRule type="expression" dxfId="57" priority="74" stopIfTrue="1">
       <formula>#REF!="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="73" stopIfTrue="1">
+      <formula>#REF!="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="75" stopIfTrue="1">
       <formula>#REF!="Eliminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="73" stopIfTrue="1">
-      <formula>#REF!="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
@@ -6514,36 +6532,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="expression" dxfId="51" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="39" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
       <formula>#REF!="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
       <formula>#REF!="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
-      <formula>#REF!="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
     <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
       <formula>$M36="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="32" stopIfTrue="1">
+      <formula>$M36="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="31" stopIfTrue="1">
       <formula>$M36="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
-      <formula>$M36="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
     <cfRule type="expression" dxfId="45" priority="40" stopIfTrue="1">
       <formula>$M31="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="41" stopIfTrue="1">
+      <formula>$M31="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$M31="Eliminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>$M31="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
@@ -6558,11 +6576,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="39" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+      <formula>$M31="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
       <formula>$M31="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
-      <formula>$M31="Terminado"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="45" stopIfTrue="1">
       <formula>$M31="Eliminado"</formula>
@@ -6583,25 +6601,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23 B25">
-    <cfRule type="expression" dxfId="32" priority="62" stopIfTrue="1">
-      <formula>#REF!="En Progreso"</formula>
+    <cfRule type="expression" dxfId="32" priority="63" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="61" stopIfTrue="1">
       <formula>#REF!="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="63" stopIfTrue="1">
-      <formula>#REF!="Eliminado"</formula>
+    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
+      <formula>#REF!="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 B34:B35 B38:B39">
-    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+      <formula>$M22="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>$M22="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
       <formula>$M22="Eliminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
-      <formula>$M22="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
@@ -6632,22 +6650,22 @@
     <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>$O31="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+      <formula>$O31="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>$O31="Eliminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
-      <formula>$O31="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="17" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
+      <formula>$O54="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="30" stopIfTrue="1">
       <formula>$O54="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
       <formula>$O54="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="28" stopIfTrue="1">
-      <formula>$O54="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:Q22">
@@ -10760,21 +10778,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -10824,8 +10831,19 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10847,14 +10865,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36031E8-9CA1-417E-B558-74DEFEC6B8F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10863,18 +10889,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36031E8-9CA1-417E-B558-74DEFEC6B8F9}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Backlog del Sprint.xlsx
+++ b/Backlog del Sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26785fffd84b4161/Documents/devops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="626" documentId="8_{467E9920-8CC0-470B-94B9-BD8211EBA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2063B386-33DC-4A9B-9065-B495480BD080}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="8_{467E9920-8CC0-470B-94B9-BD8211EBA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF04FBC-0E1E-4607-9F13-9EF7B5F67E78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7365" yWindow="3390" windowWidth="11520" windowHeight="7875" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="25" r:id="rId1"/>
@@ -459,7 +459,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,12 +475,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,18 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,6 +1220,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
@@ -1262,13 +1251,6 @@
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1324,9 +1306,45 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1369,7 +1387,51 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1391,6 +1453,80 @@
       <fill>
         <patternFill>
           <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1449,161 +1585,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1708,7 +1690,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -1935,58 +1917,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>7.75</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1785714285714279</c:v>
+                  <c:v>6.3571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6071428571428568</c:v>
+                  <c:v>5.9642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0357142857142847</c:v>
+                  <c:v>5.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4642857142857135</c:v>
+                  <c:v>5.1785714285714288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8928571428571423</c:v>
+                  <c:v>4.7857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3214285714285703</c:v>
+                  <c:v>4.3928571428571423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7499999999999991</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1785714285714279</c:v>
+                  <c:v>3.6071428571428572</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6071428571428559</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0357142857142847</c:v>
+                  <c:v>2.8214285714285712</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4642857142857135</c:v>
+                  <c:v>2.4285714285714279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89285714285714146</c:v>
+                  <c:v>2.0357142857142856</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3214285714285694</c:v>
+                  <c:v>1.6428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.85714285714285676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.46428571428571352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7.1428571428571175E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3875,8 +3857,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="131" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4206,7 +4188,7 @@
       </c>
       <c r="I17" s="34">
         <f t="shared" ref="I17:AF17" ca="1" si="0">IF(AND(SUM(OFFSET(I21,1,0,TaskRows,1))=0),"",SUM(OFFSET(I21,1,0,TaskRows,1)))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J17" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4432,75 +4414,75 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33">
         <f t="shared" ref="H19:AF19" ca="1" si="2">IF(TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20)&lt;0,"",TREND(OFFSET($H17,0,DoneDays-TrendDays,1,TrendDays),OFFSET($H20,0,DoneDays-TrendDays,1,TrendDays),H20))</f>
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1785714285714279</v>
+        <v>6.3571428571428577</v>
       </c>
       <c r="J19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6071428571428568</v>
+        <v>5.9642857142857144</v>
       </c>
       <c r="K19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0357142857142847</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="L19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4642857142857135</v>
+        <v>5.1785714285714288</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8928571428571423</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="N19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3214285714285703</v>
+        <v>4.3928571428571423</v>
       </c>
       <c r="O19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7499999999999991</v>
+        <v>4</v>
       </c>
       <c r="P19" s="33">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1785714285714279</v>
+        <v>3.6071428571428572</v>
       </c>
       <c r="Q19" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6071428571428559</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0357142857142847</v>
+        <v>2.8214285714285712</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4642857142857135</v>
+        <v>2.4285714285714279</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89285714285714146</v>
+        <v>2.0357142857142856</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3214285714285694</v>
-      </c>
-      <c r="V19" s="1" t="str">
+        <v>1.6428571428571423</v>
+      </c>
+      <c r="V19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="W19" s="1" t="str">
+        <v>1.25</v>
+      </c>
+      <c r="W19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="X19" s="1" t="str">
+        <v>0.85714285714285676</v>
+      </c>
+      <c r="X19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="Y19" s="1" t="str">
+        <v>0.46428571428571352</v>
+      </c>
+      <c r="Y19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="Z19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4758,7 +4740,7 @@
       <c r="G22" s="28">
         <v>1</v>
       </c>
-      <c r="H22" s="82">
+      <c r="H22" s="39">
         <v>2</v>
       </c>
       <c r="I22" s="39">
@@ -4814,7 +4796,7 @@
       <c r="G23" s="29">
         <v>3</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="1">
         <v>3</v>
       </c>
       <c r="I23" s="33">
@@ -4870,11 +4852,11 @@
       <c r="G24" s="29">
         <v>3</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="33">
         <v>3</v>
       </c>
-      <c r="I24" s="85">
-        <v>3</v>
+      <c r="I24" s="71">
+        <v>0</v>
       </c>
       <c r="J24" s="71">
         <v>0</v>
@@ -4929,7 +4911,7 @@
       <c r="H25" s="33">
         <v>0</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="33">
         <v>2</v>
       </c>
       <c r="J25" s="33">
@@ -4985,7 +4967,7 @@
       <c r="H26" s="33">
         <v>0</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="33">
         <v>4</v>
       </c>
       <c r="J26" s="33">
@@ -6480,11 +6462,11 @@
     <cfRule type="expression" dxfId="66" priority="71" stopIfTrue="1">
       <formula>$M5="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+      <formula>$M5="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="72" stopIfTrue="1">
       <formula>$M5="Eliminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
-      <formula>$M5="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
@@ -6513,11 +6495,11 @@
     <cfRule type="expression" dxfId="57" priority="74" stopIfTrue="1">
       <formula>#REF!="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="75" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="73" stopIfTrue="1">
       <formula>#REF!="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="75" stopIfTrue="1">
-      <formula>#REF!="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
@@ -6532,36 +6514,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="expression" dxfId="51" priority="39" stopIfTrue="1">
-      <formula>#REF!="Eliminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="37" stopIfTrue="1">
       <formula>#REF!="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="38" stopIfTrue="1">
       <formula>#REF!="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
     <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
       <formula>$M36="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
+      <formula>$M36="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
       <formula>$M36="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="31" stopIfTrue="1">
-      <formula>$M36="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
     <cfRule type="expression" dxfId="45" priority="40" stopIfTrue="1">
       <formula>$M31="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
+      <formula>$M31="Eliminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>$M31="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
-      <formula>$M31="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
@@ -6576,11 +6558,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="44" stopIfTrue="1">
+      <formula>$M31="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>$M31="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
-      <formula>$M31="En Progreso"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="45" stopIfTrue="1">
       <formula>$M31="Eliminado"</formula>
@@ -6601,25 +6583,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23 B25">
-    <cfRule type="expression" dxfId="32" priority="63" stopIfTrue="1">
-      <formula>#REF!="Eliminado"</formula>
+    <cfRule type="expression" dxfId="32" priority="62" stopIfTrue="1">
+      <formula>#REF!="En Progreso"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="61" stopIfTrue="1">
       <formula>#REF!="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
-      <formula>#REF!="En Progreso"</formula>
+    <cfRule type="expression" dxfId="30" priority="63" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24 B34:B35 B38:B39">
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
-      <formula>$M22="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
       <formula>$M22="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>$M22="Eliminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
+      <formula>$M22="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
@@ -6650,22 +6632,22 @@
     <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>$O31="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
+      <formula>$O31="Eliminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
       <formula>$O31="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
-      <formula>$O31="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
-      <formula>$O54="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="30" stopIfTrue="1">
       <formula>$O54="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="29" stopIfTrue="1">
       <formula>$O54="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="28" stopIfTrue="1">
+      <formula>$O54="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:Q22">
@@ -10778,10 +10760,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -10831,19 +10824,8 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10865,22 +10847,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36031E8-9CA1-417E-B558-74DEFEC6B8F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10889,10 +10863,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D36031E8-9CA1-417E-B558-74DEFEC6B8F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>